--- a/pinmap.xlsx
+++ b/pinmap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ODDHIVE/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ODDHIVE/2015136111/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>5V</t>
   </si>
@@ -32,36 +32,12 @@
     <t>GND</t>
   </si>
   <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>Arduino pin</t>
   </si>
   <si>
@@ -71,9 +47,6 @@
     <t>etc</t>
   </si>
   <si>
-    <t>포텐셔미터8</t>
-  </si>
-  <si>
     <t>포텐셔미터1</t>
   </si>
   <si>
@@ -83,22 +56,76 @@
     <t>포텐셔미터3</t>
   </si>
   <si>
-    <t>포텐셔미터5</t>
-  </si>
-  <si>
-    <t>포텐셔미터4</t>
-  </si>
-  <si>
-    <t>포텐셔미터6</t>
-  </si>
-  <si>
-    <t>포텐셔미터7</t>
-  </si>
-  <si>
-    <t>Trellis</t>
-  </si>
-  <si>
-    <t>trellis,po1,po2,po3,po4,po5,po6,po7,po8</t>
+    <t>5pin socket</t>
+  </si>
+  <si>
+    <t>button1</t>
+  </si>
+  <si>
+    <t>button2</t>
+  </si>
+  <si>
+    <t>button3</t>
+  </si>
+  <si>
+    <t>button4</t>
+  </si>
+  <si>
+    <t>button5</t>
+  </si>
+  <si>
+    <t>button6</t>
+  </si>
+  <si>
+    <t>button7</t>
+  </si>
+  <si>
+    <t>button8</t>
+  </si>
+  <si>
+    <t>button9</t>
+  </si>
+  <si>
+    <t>button10</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>pwm13</t>
+  </si>
+  <si>
+    <t>pwm4</t>
+  </si>
+  <si>
+    <t>pwm5</t>
+  </si>
+  <si>
+    <t>pwm6</t>
+  </si>
+  <si>
+    <t>pwm12</t>
+  </si>
+  <si>
+    <t>pwm11</t>
+  </si>
+  <si>
+    <t>pwm10</t>
+  </si>
+  <si>
+    <t>pwm9</t>
+  </si>
+  <si>
+    <t>pwm8</t>
+  </si>
+  <si>
+    <t>pwm7</t>
+  </si>
+  <si>
+    <t>pwm13,pwm12,pwm11,pwm10,pwm9,pwm8,pwm7,pwm6,pwm5,pwm4,5pin socket, 포텐셜미터1,포텐셜미터2,포텐셜미터3</t>
+  </si>
+  <si>
+    <t>포텐셜미터1,포텐셜미터2,포텐셜미터3,5pin socket</t>
   </si>
 </sst>
 </file>
@@ -413,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,13 +454,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -441,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -449,87 +476,116 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
